--- a/natmiOut/OldD2/LR-pairs_lrc2p/Col4a6-Cd93.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Col4a6-Cd93.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.255319972039629</v>
+        <v>0.320146</v>
       </c>
       <c r="H2">
-        <v>0.255319972039629</v>
+        <v>0.960438</v>
       </c>
       <c r="I2">
-        <v>0.2307678308052128</v>
+        <v>0.2524412221467142</v>
       </c>
       <c r="J2">
-        <v>0.2307678308052128</v>
+        <v>0.3254046475729954</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>234.538651801622</v>
+        <v>235.101616</v>
       </c>
       <c r="N2">
-        <v>234.538651801622</v>
+        <v>470.203232</v>
       </c>
       <c r="O2">
-        <v>0.4253153856435704</v>
+        <v>0.4180755282411119</v>
       </c>
       <c r="P2">
-        <v>0.4253153856435704</v>
+        <v>0.3241848074150884</v>
       </c>
       <c r="Q2">
-        <v>59.88240202020241</v>
+        <v>75.26684195593599</v>
       </c>
       <c r="R2">
-        <v>59.88240202020241</v>
+        <v>451.601051735616</v>
       </c>
       <c r="S2">
-        <v>0.09814910895304929</v>
+        <v>0.1055394972988194</v>
       </c>
       <c r="T2">
-        <v>0.09814910895304929</v>
+        <v>0.1054912430054262</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.255319972039629</v>
+        <v>0.320146</v>
       </c>
       <c r="H3">
-        <v>0.255319972039629</v>
+        <v>0.960438</v>
       </c>
       <c r="I3">
-        <v>0.2307678308052128</v>
+        <v>0.2524412221467142</v>
       </c>
       <c r="J3">
-        <v>0.2307678308052128</v>
+        <v>0.3254046475729954</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>94.69438057492491</v>
+        <v>0.06134800000000001</v>
       </c>
       <c r="N3">
-        <v>94.69438057492491</v>
+        <v>0.184044</v>
       </c>
       <c r="O3">
-        <v>0.1717199987427602</v>
+        <v>0.0001090936674230931</v>
       </c>
       <c r="P3">
-        <v>0.1717199987427602</v>
+        <v>0.0001268903840624867</v>
       </c>
       <c r="Q3">
-        <v>24.17736660069981</v>
+        <v>0.019640316808</v>
       </c>
       <c r="R3">
-        <v>24.17736660069981</v>
+        <v>0.176762851272</v>
       </c>
       <c r="S3">
-        <v>0.03962745161574065</v>
+        <v>2.75397387327528E-05</v>
       </c>
       <c r="T3">
-        <v>0.03962745161574065</v>
+        <v>4.129072070625552E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.255319972039629</v>
+        <v>0.320146</v>
       </c>
       <c r="H4">
-        <v>0.255319972039629</v>
+        <v>0.960438</v>
       </c>
       <c r="I4">
-        <v>0.2307678308052128</v>
+        <v>0.2524412221467142</v>
       </c>
       <c r="J4">
-        <v>0.2307678308052128</v>
+        <v>0.3254046475729954</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>66.6246872012414</v>
+        <v>97.11560033333332</v>
       </c>
       <c r="N4">
-        <v>66.6246872012414</v>
+        <v>291.346801</v>
       </c>
       <c r="O4">
-        <v>0.1208180583997979</v>
+        <v>0.1726983276448897</v>
       </c>
       <c r="P4">
-        <v>0.1208180583997979</v>
+        <v>0.2008710279838891</v>
       </c>
       <c r="Q4">
-        <v>17.01061327336998</v>
+        <v>31.09117098431533</v>
       </c>
       <c r="R4">
-        <v>17.01061327336998</v>
+        <v>279.8205388588379</v>
       </c>
       <c r="S4">
-        <v>0.02788092125901889</v>
+        <v>0.04359617689336963</v>
       </c>
       <c r="T4">
-        <v>0.02788092125901889</v>
+        <v>0.06536436606872272</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.255319972039629</v>
+        <v>0.320146</v>
       </c>
       <c r="H5">
-        <v>0.255319972039629</v>
+        <v>0.960438</v>
       </c>
       <c r="I5">
-        <v>0.2307678308052128</v>
+        <v>0.2524412221467142</v>
       </c>
       <c r="J5">
-        <v>0.2307678308052128</v>
+        <v>0.3254046475729954</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>154.092684022355</v>
+        <v>68.91226833333333</v>
       </c>
       <c r="N5">
-        <v>154.092684022355</v>
+        <v>206.736805</v>
       </c>
       <c r="O5">
-        <v>0.2794336405807186</v>
+        <v>0.1225450231943603</v>
       </c>
       <c r="P5">
-        <v>0.2794336405807186</v>
+        <v>0.1425360923817208</v>
       </c>
       <c r="Q5">
-        <v>39.34293977609906</v>
+        <v>22.06198705784333</v>
       </c>
       <c r="R5">
-        <v>39.34293977609906</v>
+        <v>198.55788352059</v>
       </c>
       <c r="S5">
-        <v>0.06448429509081592</v>
+        <v>0.03093541542318175</v>
       </c>
       <c r="T5">
-        <v>0.06448429509081592</v>
+        <v>0.04638190690790576</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.255319972039629</v>
+        <v>0.320146</v>
       </c>
       <c r="H6">
-        <v>0.255319972039629</v>
+        <v>0.960438</v>
       </c>
       <c r="I6">
-        <v>0.2307678308052128</v>
+        <v>0.2524412221467142</v>
       </c>
       <c r="J6">
-        <v>0.2307678308052128</v>
+        <v>0.3254046475729954</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.49602819711562</v>
+        <v>159.6431223333333</v>
       </c>
       <c r="N6">
-        <v>1.49602819711562</v>
+        <v>478.929367</v>
       </c>
       <c r="O6">
-        <v>0.002712916633152936</v>
+        <v>0.2838895105662259</v>
       </c>
       <c r="P6">
-        <v>0.002712916633152936</v>
+        <v>0.3302011003750931</v>
       </c>
       <c r="Q6">
-        <v>0.3819658774580567</v>
+        <v>51.10910704252733</v>
       </c>
       <c r="R6">
-        <v>0.3819658774580567</v>
+        <v>459.981963382746</v>
       </c>
       <c r="S6">
-        <v>0.0006260538865880844</v>
+        <v>0.07166541500197061</v>
       </c>
       <c r="T6">
-        <v>0.0006260538865880844</v>
+        <v>0.1074489726957725</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.851073285412014</v>
+        <v>0.320146</v>
       </c>
       <c r="H7">
-        <v>0.851073285412014</v>
+        <v>0.960438</v>
       </c>
       <c r="I7">
-        <v>0.7692321691947873</v>
+        <v>0.2524412221467142</v>
       </c>
       <c r="J7">
-        <v>0.7692321691947873</v>
+        <v>0.3254046475729954</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>234.538651801622</v>
+        <v>1.508493</v>
       </c>
       <c r="N7">
-        <v>234.538651801622</v>
+        <v>3.016986</v>
       </c>
       <c r="O7">
-        <v>0.4253153856435704</v>
+        <v>0.002682516685989175</v>
       </c>
       <c r="P7">
-        <v>0.4253153856435704</v>
+        <v>0.00208008146014619</v>
       </c>
       <c r="Q7">
-        <v>199.6095809449108</v>
+        <v>0.482937999978</v>
       </c>
       <c r="R7">
-        <v>199.6095809449108</v>
+        <v>2.897627999868</v>
       </c>
       <c r="S7">
-        <v>0.3271662766905211</v>
+        <v>0.0006771777906400611</v>
       </c>
       <c r="T7">
-        <v>0.3271662766905211</v>
+        <v>0.0006768681744619928</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
@@ -912,49 +912,49 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.851073285412014</v>
+        <v>0.09497266666666666</v>
       </c>
       <c r="H8">
-        <v>0.851073285412014</v>
+        <v>0.284918</v>
       </c>
       <c r="I8">
-        <v>0.7692321691947873</v>
+        <v>0.07488775759767681</v>
       </c>
       <c r="J8">
-        <v>0.7692321691947873</v>
+        <v>0.09653266673871995</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>94.69438057492491</v>
+        <v>235.101616</v>
       </c>
       <c r="N8">
-        <v>94.69438057492491</v>
+        <v>470.203232</v>
       </c>
       <c r="O8">
-        <v>0.1717199987427602</v>
+        <v>0.4180755282411119</v>
       </c>
       <c r="P8">
-        <v>0.1717199987427602</v>
+        <v>0.3241848074150884</v>
       </c>
       <c r="Q8">
-        <v>80.59185758595694</v>
+        <v>22.32822740916266</v>
       </c>
       <c r="R8">
-        <v>80.59185758595694</v>
+        <v>133.969364454976</v>
       </c>
       <c r="S8">
-        <v>0.1320925471270196</v>
+        <v>0.03130873881644107</v>
       </c>
       <c r="T8">
-        <v>0.1320925471270196</v>
+        <v>0.03129442397595683</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.851073285412014</v>
+        <v>0.09497266666666666</v>
       </c>
       <c r="H9">
-        <v>0.851073285412014</v>
+        <v>0.284918</v>
       </c>
       <c r="I9">
-        <v>0.7692321691947873</v>
+        <v>0.07488775759767681</v>
       </c>
       <c r="J9">
-        <v>0.7692321691947873</v>
+        <v>0.09653266673871995</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>66.6246872012414</v>
+        <v>0.06134800000000001</v>
       </c>
       <c r="N9">
-        <v>66.6246872012414</v>
+        <v>0.184044</v>
       </c>
       <c r="O9">
-        <v>0.1208180583997979</v>
+        <v>0.0001090936674230931</v>
       </c>
       <c r="P9">
-        <v>0.1208180583997979</v>
+        <v>0.0001268903840624867</v>
       </c>
       <c r="Q9">
-        <v>56.70249142590828</v>
+        <v>0.005826383154666667</v>
       </c>
       <c r="R9">
-        <v>56.70249142590828</v>
+        <v>0.05243744839200001</v>
       </c>
       <c r="S9">
-        <v>0.09293713714077904</v>
+        <v>8.169780121422164E-06</v>
       </c>
       <c r="T9">
-        <v>0.09293713714077904</v>
+        <v>1.224906715705221E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.851073285412014</v>
+        <v>0.09497266666666666</v>
       </c>
       <c r="H10">
-        <v>0.851073285412014</v>
+        <v>0.284918</v>
       </c>
       <c r="I10">
-        <v>0.7692321691947873</v>
+        <v>0.07488775759767681</v>
       </c>
       <c r="J10">
-        <v>0.7692321691947873</v>
+        <v>0.09653266673871995</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>154.092684022355</v>
+        <v>97.11560033333332</v>
       </c>
       <c r="N10">
-        <v>154.092684022355</v>
+        <v>291.346801</v>
       </c>
       <c r="O10">
-        <v>0.2794336405807186</v>
+        <v>0.1726983276448897</v>
       </c>
       <c r="P10">
-        <v>0.2794336405807186</v>
+        <v>0.2008710279838891</v>
       </c>
       <c r="Q10">
-        <v>131.144166848861</v>
+        <v>9.223327538590887</v>
       </c>
       <c r="R10">
-        <v>131.144166848861</v>
+        <v>83.00994784731799</v>
       </c>
       <c r="S10">
-        <v>0.2149493454899027</v>
+        <v>0.01293299049819466</v>
       </c>
       <c r="T10">
-        <v>0.2149493454899027</v>
+        <v>0.01939061600183285</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1098,49 +1098,545 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.851073285412014</v>
+        <v>0.09497266666666666</v>
       </c>
       <c r="H11">
-        <v>0.851073285412014</v>
+        <v>0.284918</v>
       </c>
       <c r="I11">
-        <v>0.7692321691947873</v>
+        <v>0.07488775759767681</v>
       </c>
       <c r="J11">
-        <v>0.7692321691947873</v>
+        <v>0.09653266673871995</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.49602819711562</v>
+        <v>68.91226833333333</v>
       </c>
       <c r="N11">
-        <v>1.49602819711562</v>
+        <v>206.736805</v>
       </c>
       <c r="O11">
-        <v>0.002712916633152936</v>
+        <v>0.1225450231943603</v>
       </c>
       <c r="P11">
-        <v>0.002712916633152936</v>
+        <v>0.1425360923817208</v>
       </c>
       <c r="Q11">
-        <v>1.273229632788203</v>
+        <v>6.544781889665555</v>
       </c>
       <c r="R11">
-        <v>1.273229632788203</v>
+        <v>58.90303700699</v>
       </c>
       <c r="S11">
-        <v>0.002086862746564853</v>
+        <v>0.009177121991780933</v>
       </c>
       <c r="T11">
-        <v>0.002086862746564853</v>
+        <v>0.01375938910412405</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.09497266666666666</v>
+      </c>
+      <c r="H12">
+        <v>0.284918</v>
+      </c>
+      <c r="I12">
+        <v>0.07488775759767681</v>
+      </c>
+      <c r="J12">
+        <v>0.09653266673871995</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>159.6431223333333</v>
+      </c>
+      <c r="N12">
+        <v>478.929367</v>
+      </c>
+      <c r="O12">
+        <v>0.2838895105662259</v>
+      </c>
+      <c r="P12">
+        <v>0.3302011003750931</v>
+      </c>
+      <c r="Q12">
+        <v>15.16173304298955</v>
+      </c>
+      <c r="R12">
+        <v>136.455597386906</v>
+      </c>
+      <c r="S12">
+        <v>0.02125984885180664</v>
+      </c>
+      <c r="T12">
+        <v>0.03187519277926748</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.09497266666666666</v>
+      </c>
+      <c r="H13">
+        <v>0.284918</v>
+      </c>
+      <c r="I13">
+        <v>0.07488775759767681</v>
+      </c>
+      <c r="J13">
+        <v>0.09653266673871995</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.508493</v>
+      </c>
+      <c r="N13">
+        <v>3.016986</v>
+      </c>
+      <c r="O13">
+        <v>0.002682516685989175</v>
+      </c>
+      <c r="P13">
+        <v>0.00208008146014619</v>
+      </c>
+      <c r="Q13">
+        <v>0.143265602858</v>
+      </c>
+      <c r="R13">
+        <v>0.8595936171480001</v>
+      </c>
+      <c r="S13">
+        <v>0.0002008876593320807</v>
+      </c>
+      <c r="T13">
+        <v>0.0002007958103816822</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.8530815</v>
+      </c>
+      <c r="H14">
+        <v>1.706163</v>
+      </c>
+      <c r="I14">
+        <v>0.672671020255609</v>
+      </c>
+      <c r="J14">
+        <v>0.5780626856882846</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>235.101616</v>
+      </c>
+      <c r="N14">
+        <v>470.203232</v>
+      </c>
+      <c r="O14">
+        <v>0.4180755282411119</v>
+      </c>
+      <c r="P14">
+        <v>0.3241848074150884</v>
+      </c>
+      <c r="Q14">
+        <v>200.560839229704</v>
+      </c>
+      <c r="R14">
+        <v>802.2433569188159</v>
+      </c>
+      <c r="S14">
+        <v>0.2812272921258514</v>
+      </c>
+      <c r="T14">
+        <v>0.1873991404337053</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.8530815</v>
+      </c>
+      <c r="H15">
+        <v>1.706163</v>
+      </c>
+      <c r="I15">
+        <v>0.672671020255609</v>
+      </c>
+      <c r="J15">
+        <v>0.5780626856882846</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.06134800000000001</v>
+      </c>
+      <c r="N15">
+        <v>0.184044</v>
+      </c>
+      <c r="O15">
+        <v>0.0001090936674230931</v>
+      </c>
+      <c r="P15">
+        <v>0.0001268903840624867</v>
+      </c>
+      <c r="Q15">
+        <v>0.05233484386200001</v>
+      </c>
+      <c r="R15">
+        <v>0.3140090631720001</v>
+      </c>
+      <c r="S15">
+        <v>7.33841485689181E-05</v>
+      </c>
+      <c r="T15">
+        <v>7.335059619917897E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.8530815</v>
+      </c>
+      <c r="H16">
+        <v>1.706163</v>
+      </c>
+      <c r="I16">
+        <v>0.672671020255609</v>
+      </c>
+      <c r="J16">
+        <v>0.5780626856882846</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>97.11560033333332</v>
+      </c>
+      <c r="N16">
+        <v>291.346801</v>
+      </c>
+      <c r="O16">
+        <v>0.1726983276448897</v>
+      </c>
+      <c r="P16">
+        <v>0.2008710279838891</v>
+      </c>
+      <c r="Q16">
+        <v>82.8475220057605</v>
+      </c>
+      <c r="R16">
+        <v>497.085132034563</v>
+      </c>
+      <c r="S16">
+        <v>0.1161691602533254</v>
+      </c>
+      <c r="T16">
+        <v>0.1161160459133335</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.8530815</v>
+      </c>
+      <c r="H17">
+        <v>1.706163</v>
+      </c>
+      <c r="I17">
+        <v>0.672671020255609</v>
+      </c>
+      <c r="J17">
+        <v>0.5780626856882846</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>68.91226833333333</v>
+      </c>
+      <c r="N17">
+        <v>206.736805</v>
+      </c>
+      <c r="O17">
+        <v>0.1225450231943603</v>
+      </c>
+      <c r="P17">
+        <v>0.1425360923817208</v>
+      </c>
+      <c r="Q17">
+        <v>58.7877812382025</v>
+      </c>
+      <c r="R17">
+        <v>352.726687429215</v>
+      </c>
+      <c r="S17">
+        <v>0.08243248577939759</v>
+      </c>
+      <c r="T17">
+        <v>0.08239479636969095</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.8530815</v>
+      </c>
+      <c r="H18">
+        <v>1.706163</v>
+      </c>
+      <c r="I18">
+        <v>0.672671020255609</v>
+      </c>
+      <c r="J18">
+        <v>0.5780626856882846</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>159.6431223333333</v>
+      </c>
+      <c r="N18">
+        <v>478.929367</v>
+      </c>
+      <c r="O18">
+        <v>0.2838895105662259</v>
+      </c>
+      <c r="P18">
+        <v>0.3302011003750931</v>
+      </c>
+      <c r="Q18">
+        <v>136.1885942648035</v>
+      </c>
+      <c r="R18">
+        <v>817.1315655888211</v>
+      </c>
+      <c r="S18">
+        <v>0.1909642467124487</v>
+      </c>
+      <c r="T18">
+        <v>0.1908769349000532</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.8530815</v>
+      </c>
+      <c r="H19">
+        <v>1.706163</v>
+      </c>
+      <c r="I19">
+        <v>0.672671020255609</v>
+      </c>
+      <c r="J19">
+        <v>0.5780626856882846</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.508493</v>
+      </c>
+      <c r="N19">
+        <v>3.016986</v>
+      </c>
+      <c r="O19">
+        <v>0.002682516685989175</v>
+      </c>
+      <c r="P19">
+        <v>0.00208008146014619</v>
+      </c>
+      <c r="Q19">
+        <v>1.2868674711795</v>
+      </c>
+      <c r="R19">
+        <v>5.147469884718</v>
+      </c>
+      <c r="S19">
+        <v>0.001804451236017034</v>
+      </c>
+      <c r="T19">
+        <v>0.001202417475302515</v>
       </c>
     </row>
   </sheetData>
